--- a/documentation/Assignment2-ERD.xlsx
+++ b/documentation/Assignment2-ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\To-Do-List\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7447ED-4FC7-4B89-8970-DAD35E29A76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14BC05-7043-4886-9FE2-E99793FE7E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{493BD57B-97CE-48FF-B816-388D840320F1}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>1..1    ---&gt;</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>item_id</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>tinytext</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
@@ -214,13 +214,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +538,7 @@
   <dimension ref="D5:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,23 +554,23 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="H5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>0</v>
@@ -592,7 +592,7 @@
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>1</v>
@@ -615,14 +615,14 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="K8" s="7"/>
     </row>

--- a/documentation/Assignment2-ERD.xlsx
+++ b/documentation/Assignment2-ERD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\To-Do-List\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14BC05-7043-4886-9FE2-E99793FE7E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E6DFB5-5313-46C9-9B95-3BE9EDA5F5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{493BD57B-97CE-48FF-B816-388D840320F1}"/>
   </bookViews>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
@@ -71,25 +68,25 @@
     <t>1..1    ---&gt;</t>
   </si>
   <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>list_id</t>
-  </si>
-  <si>
-    <t>list_title</t>
-  </si>
-  <si>
-    <t>item_content</t>
-  </si>
-  <si>
-    <t>tinytext</t>
-  </si>
-  <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t>TaskList</t>
+  </si>
+  <si>
+    <t>tasklist_id</t>
+  </si>
+  <si>
+    <t>tasklist_name</t>
+  </si>
+  <si>
+    <t>task_id</t>
+  </si>
+  <si>
+    <t>task_name</t>
+  </si>
+  <si>
+    <t>varchar(120)</t>
   </si>
 </sst>
 </file>
@@ -538,16 +535,16 @@
   <dimension ref="D5:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -555,34 +552,34 @@
   <sheetData>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>0</v>
@@ -592,22 +589,22 @@
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K7" s="6"/>
     </row>
@@ -615,9 +612,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="H8" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
@@ -633,26 +628,26 @@
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
